--- a/mappings/cmip5-ocean-scientific-properties.xlsx
+++ b/mappings/cmip5-ocean-scientific-properties.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
-  <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macg/dev/esdoc/repos/esdoc-docs/cmip5/vocab-mappings/ocean/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26819"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-4400" yWindow="0" windowWidth="19840" windowHeight="17300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
   <si>
     <t>Table 1</t>
   </si>
@@ -210,13 +205,142 @@
   </si>
   <si>
     <t>cmip6-id</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Momentum &gt; Bottom Friction &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Momentum &gt; Lateral Friction &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Boundary Forcing Details &gt; Geothermal Heating</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Sunlight Penetration &gt; Scheme</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Boundary Forcing Details &gt; Tracers Flux Correction</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Sunlight Penetration &gt; Tracers Sun Ocean Colour</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Surface Salinity Atmos &gt; Scheme</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Surface Salinity Seaice &gt; Scheme</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Background</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Operator &gt; Direction</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Operator &gt; Discretisation</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Operator &gt; Order</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Cst</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Var</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Background</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Cst</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Var</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Eiv Added Diff</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Eiv Flux Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Eiv Constant Val</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Details &gt; Mesoscale Closure</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Operator &gt; Direction</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Operator &gt; Discretisation</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Operator &gt; Order</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Uplow Boundaries &gt; Bottom Boundary Layer &gt; Ocean Bbl Lateral Mixing Coef</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Uplow Boundaries &gt; Bottom Boundary Layer &gt; Ocean Sill Overflow</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Uplow Boundaries &gt; Bottom Boundary Layer &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Uplow Boundaries &gt; Free Surface &gt; Scheme</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Vertical Physics Details &gt; Convection Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Vertical Physics Details &gt; Tide Induced Mixing</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Momentum &gt; Background</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Momentum &gt; Constant</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Momentum &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Tracers &gt; Background</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Tracers &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Tracers &gt; Constant</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Momentum &gt; Background</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Momentum &gt; Type</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Tracers &gt; Background</t>
+  </si>
+  <si>
+    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Tracers &gt; Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -231,6 +355,23 @@
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -368,12 +509,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -419,8 +566,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1610,19 +1762,20 @@
   </sheetPr>
   <dimension ref="A1:IV64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="58.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="73.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
     <col min="6" max="256" width="8.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="28" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1631,7 +1784,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="20.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1648,7 +1801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="20.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="20.25" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="20.25" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="20.25" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="20.25" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -1723,7 +1876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="20.25" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1738,14 +1891,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="20.25" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="20.25" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1755,12 +1908,14 @@
       <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="E10" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="20.25" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -1770,12 +1925,14 @@
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="E11" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="20.25" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>5</v>
       </c>
@@ -1790,14 +1947,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="20.25" customHeight="1">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="20.25" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1807,12 +1964,14 @@
       <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="E14" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="20.25" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>5</v>
       </c>
@@ -1822,12 +1981,14 @@
       <c r="C15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="E15" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="20.25" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
@@ -1837,12 +1998,14 @@
       <c r="C16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="20.25" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>5</v>
       </c>
@@ -1852,12 +2015,14 @@
       <c r="C17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="E17" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="20.25" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
@@ -1867,12 +2032,14 @@
       <c r="C18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="E18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="20.25" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>5</v>
       </c>
@@ -1887,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="20.25" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>5</v>
       </c>
@@ -1897,19 +2064,21 @@
       <c r="C20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="E20" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="20.25" customHeight="1">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="20.25" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>5</v>
       </c>
@@ -1919,12 +2088,14 @@
       <c r="C22" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="E22" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="20.25" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>5</v>
       </c>
@@ -1939,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="20.25" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
@@ -1949,12 +2120,14 @@
       <c r="C24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="E24" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="20.25" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
@@ -1964,12 +2137,14 @@
       <c r="C25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="12"/>
+      <c r="D25" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="E25" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="20.25" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -1979,12 +2154,14 @@
       <c r="C26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="12"/>
+      <c r="D26" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="E26" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="20.25" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>5</v>
       </c>
@@ -1994,12 +2171,14 @@
       <c r="C27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="E27" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="20.25" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
@@ -2009,12 +2188,14 @@
       <c r="C28" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="E28" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="20.25" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -2024,19 +2205,21 @@
       <c r="C29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="E29" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="20.25" customHeight="1">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="20.25" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>5</v>
       </c>
@@ -2046,12 +2229,14 @@
       <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="12"/>
+      <c r="D31" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="E31" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="20.25" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>5</v>
       </c>
@@ -2061,12 +2246,14 @@
       <c r="C32" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="E32" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="20.25" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="20.25" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -2091,12 +2278,14 @@
       <c r="C34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="12"/>
+      <c r="D34" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="E34" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="20.25" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
@@ -2106,12 +2295,14 @@
       <c r="C35" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="E35" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="20.25" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>5</v>
       </c>
@@ -2121,12 +2312,14 @@
       <c r="C36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="E36" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="20.25" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>5</v>
       </c>
@@ -2136,12 +2329,11 @@
       <c r="C37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="12"/>
       <c r="E37" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="20.25" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>5</v>
       </c>
@@ -2151,12 +2343,14 @@
       <c r="C38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="E38" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="20.25" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>5</v>
       </c>
@@ -2166,12 +2360,14 @@
       <c r="C39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="E39" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="20.25" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>5</v>
       </c>
@@ -2181,12 +2377,14 @@
       <c r="C40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="12"/>
+      <c r="D40" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="E40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="20.25" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>5</v>
       </c>
@@ -2196,12 +2394,14 @@
       <c r="C41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="E41" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="20.25" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>5</v>
       </c>
@@ -2211,12 +2411,14 @@
       <c r="C42" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="15" t="s">
+        <v>85</v>
+      </c>
       <c r="E42" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="20.25" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>5</v>
       </c>
@@ -2226,12 +2428,14 @@
       <c r="C43" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D43" s="12"/>
+      <c r="D43" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="E43" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="20.25" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>5</v>
       </c>
@@ -2241,19 +2445,21 @@
       <c r="C44" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="E44" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="20.25" customHeight="1">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
     </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="20.25" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>5</v>
       </c>
@@ -2263,12 +2469,14 @@
       <c r="C46" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D46" s="12"/>
+      <c r="D46" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="E46" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="20.25" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>5</v>
       </c>
@@ -2278,12 +2486,14 @@
       <c r="C47" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="E47" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="20.25" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>5</v>
       </c>
@@ -2293,12 +2503,14 @@
       <c r="C48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="E48" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="20.25" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>5</v>
       </c>
@@ -2308,19 +2520,21 @@
       <c r="C49" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D49" s="12"/>
+      <c r="D49" s="15" t="s">
+        <v>91</v>
+      </c>
       <c r="E49" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="20.25" customHeight="1">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13"/>
     </row>
-    <row r="51" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="20.25" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>5</v>
       </c>
@@ -2330,12 +2544,14 @@
       <c r="C51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="12"/>
+      <c r="D51" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="E51" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" ht="20.25" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>5</v>
       </c>
@@ -2345,12 +2561,14 @@
       <c r="C52" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="12"/>
+      <c r="D52" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="E52" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" ht="20.25" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>5</v>
       </c>
@@ -2360,12 +2578,14 @@
       <c r="C53" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="12"/>
+      <c r="D53" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="E53" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" ht="20.25" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>5</v>
       </c>
@@ -2380,7 +2600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" ht="20.25" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>5</v>
       </c>
@@ -2390,12 +2610,14 @@
       <c r="C55" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="12"/>
+      <c r="D55" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="E55" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" ht="20.25" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>5</v>
       </c>
@@ -2405,12 +2627,14 @@
       <c r="C56" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D56" s="12"/>
+      <c r="D56" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="E56" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" ht="20.25" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>5</v>
       </c>
@@ -2420,12 +2644,14 @@
       <c r="C57" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="12"/>
+      <c r="D57" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="E57" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" ht="20.25" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>5</v>
       </c>
@@ -2440,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" ht="20.25" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>5</v>
       </c>
@@ -2450,12 +2676,14 @@
       <c r="C59" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="12"/>
+      <c r="D59" s="15" t="s">
+        <v>99</v>
+      </c>
       <c r="E59" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" ht="20.25" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>5</v>
       </c>
@@ -2465,12 +2693,14 @@
       <c r="C60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="12"/>
+      <c r="D60" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="E60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" ht="20.25" customHeight="1">
       <c r="A61" s="9" t="s">
         <v>5</v>
       </c>
@@ -2480,12 +2710,14 @@
       <c r="C61" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="12"/>
+      <c r="D61" s="15" t="s">
+        <v>100</v>
+      </c>
       <c r="E61" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" ht="20.25" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>5</v>
       </c>
@@ -2495,12 +2727,14 @@
       <c r="C62" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="12"/>
+      <c r="D62" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E62" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" ht="20.25" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>5</v>
       </c>
@@ -2510,12 +2744,14 @@
       <c r="C63" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D63" s="12"/>
+      <c r="D63" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="E63" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" ht="20.25" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>5</v>
       </c>
@@ -2525,7 +2761,9 @@
       <c r="C64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D64" s="12"/>
+      <c r="D64" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="E64" s="13">
         <v>0</v>
       </c>
@@ -2539,5 +2777,10 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/mappings/cmip5-ocean-scientific-properties.xlsx
+++ b/mappings/cmip5-ocean-scientific-properties.xlsx
@@ -1,46 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26819"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macg/dev/esdoc/repos/cmip6-specializations-ocean/mappings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4400" yWindow="0" windowWidth="19840" windowHeight="17300"/>
+    <workbookView xWindow="3980" yWindow="460" windowWidth="19840" windowHeight="17300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
-  <si>
-    <t>Table 1</t>
-  </si>
-  <si>
-    <t>cmip5-property-type</t>
-  </si>
-  <si>
-    <t>cmip5-component</t>
-  </si>
-  <si>
-    <t>cmip5-component-property</t>
-  </si>
-  <si>
-    <t>mapping-qc-status</t>
-  </si>
-  <si>
-    <t>Scientific Properties</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="105">
   <si>
     <t>Ocean &gt; Advection</t>
   </si>
@@ -207,147 +194,163 @@
     <t>cmip6-id</t>
   </si>
   <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Momentum &gt; Bottom Friction &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Momentum &gt; Lateral Friction &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Boundary Forcing Details &gt; Geothermal Heating</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Sunlight Penetration &gt; Scheme</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Boundary Forcing Details &gt; Tracers Flux Correction</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Sunlight Penetration &gt; Tracers Sun Ocean Colour</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Surface Salinity Atmos &gt; Scheme</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Boundary Forcing &gt; Tracers &gt; Surface Salinity Seaice &gt; Scheme</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Background</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Operator &gt; Direction</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Operator &gt; Discretisation</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Operator &gt; Order</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Cst</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Momentum &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Var</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Background</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Cst</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Eddy Visc Coeff Var</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Viscosity Coeff &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Eiv Added Diff</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Eiv Flux Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Eddy Induced Velocity &gt; Eiv Constant Val</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Details &gt; Mesoscale Closure</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Operator &gt; Direction</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Operator &gt; Discretisation</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Lateral Physics &gt; Tracers &gt; Operator &gt; Order</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Uplow Boundaries &gt; Bottom Boundary Layer &gt; Ocean Bbl Lateral Mixing Coef</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Uplow Boundaries &gt; Bottom Boundary Layer &gt; Ocean Sill Overflow</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Uplow Boundaries &gt; Bottom Boundary Layer &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Uplow Boundaries &gt; Free Surface &gt; Scheme</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Vertical Physics Details &gt; Convection Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Vertical Physics Details &gt; Tide Induced Mixing</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Momentum &gt; Background</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Momentum &gt; Constant</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Momentum &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Tracers &gt; Background</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Tracers &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Interior Mixing &gt; Tracers &gt; Constant</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Momentum &gt; Background</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Momentum &gt; Type</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Tracers &gt; Background</t>
-  </si>
-  <si>
-    <t>Ocean &gt; Vertical Physics &gt; Boundary Layer Mixing &gt; Tracers &gt; Type</t>
+    <t>cmip5-component-label</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.geothermal_heating</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.ocean_colour</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.tracers.sunlight_penetration.scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.tracers_flux_correction</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.momentum.bottom_friction.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.momentum.lateral_friction.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.constant_coefficient</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.coeff_background</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.eddy_viscosity_coeff.variable_coefficient</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.operator.direction</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.operator.discretisation</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.momentum.operator.order</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_viscosity_coeff.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_viscosity_coeff.coeff_background</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_viscosity_coeff.constant_coefficient</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_viscosity_coeff.variable_coefficient</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.flux_type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.constant_val</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.eddy_induced_velocity.added_diffusivity</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.operator.direction</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.operator.discretisation</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.operator.order</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.lateral_physics.tracers.mesoscale_closure</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.free_surface.scheme</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.type_of_bbl</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.sill_overflow</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.uplow_boundaries.bottom_boundary_layer.lateral_mixing_coef</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.background</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.momentum.constant</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.constant</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.background</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.tracers.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.background</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.momentum.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.background</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.boundary_layer_mixing.tracers.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.details.convection_type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.vertical_physics.interior_mixing.details.tide_induced_mixing</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.flux_limiter</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.lateral_tracers.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.momentum.scheme_name</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.momentum.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.vertical_tracers.flux_limiter</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.advection.vertical_tracers.type</t>
+  </si>
+  <si>
+    <t>cmip6.ocean.boundary_forcing.momentum_flux_correction</t>
+  </si>
+  <si>
+    <t>cmip5-property-label</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -374,6 +377,17 @@
       <color theme="11"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -395,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -415,21 +429,6 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,66 +512,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1760,1027 +1744,700 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV64"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="34.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="73.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="256" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.83203125" style="1" customWidth="1"/>
+    <col min="4" max="254" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" ht="20.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="8"/>
+    </row>
+    <row r="37" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8"/>
+    </row>
+    <row r="43" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="8"/>
+    </row>
+    <row r="56" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.5" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A31" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A32" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A33" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A34" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A36" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A37" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E39" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A40" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A42" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C59" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13"/>
-    </row>
-    <row r="46" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A46" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="15" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="8"/>
+    </row>
+    <row r="61" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="E46" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="11" t="s">
+    </row>
+    <row r="64" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="15" t="s">
+      <c r="B64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E48" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="15" t="s">
+    </row>
+    <row r="65" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="8"/>
+    </row>
+    <row r="66" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E49" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-    </row>
-    <row r="51" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A51" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" s="11" t="s">
+    </row>
+    <row r="67" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="8"/>
+    </row>
+    <row r="69" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E51" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="15" t="s">
+      <c r="C69" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A53" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C53" s="11" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="15" t="s">
+      <c r="C70" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A54" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A55" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A57" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E57" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A58" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A60" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A62" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E64" s="13">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/mappings/cmip5-ocean-scientific-properties.xlsx
+++ b/mappings/cmip5-ocean-scientific-properties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3980" yWindow="460" windowWidth="19840" windowHeight="17300"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="19840" windowHeight="17300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -348,7 +348,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -378,12 +378,6 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
@@ -519,7 +513,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -548,9 +542,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1747,7 +1738,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1885,7 +1876,7 @@
       <c r="B13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>56</v>
       </c>
     </row>
